--- a/301/301-testcase.xlsx
+++ b/301/301-testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\9-cdptw1-2\9-cdptw1-2\301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\9-cdptw1-2\9-cdptw1-2\375\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>VERSION</t>
   </si>
@@ -495,15 +495,6 @@
     <t>- hiển thị theo kích thước margin</t>
   </si>
   <si>
-    <t>row: chia 3 cột nhỏ</t>
-  </si>
-  <si>
-    <t>- col-md-4</t>
-  </si>
-  <si>
-    <t>- hiển thị theo 3 cột được chia theo bootstrap</t>
-  </si>
-  <si>
     <t>cột 1,2,3</t>
   </si>
   <si>
@@ -511,12 +502,6 @@
   </si>
   <si>
     <t>Block 832</t>
-  </si>
-  <si>
-    <t>- margin-top:10px;</t>
-  </si>
-  <si>
-    <t>hiệu ứng hover thay đổi magin-top</t>
   </si>
   <si>
     <t>thẻ &lt;a&gt;&lt;/a&gt; thêm css</t>
@@ -529,6 +514,18 @@
   </si>
   <si>
     <t>xóa the &lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form&gt;&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>chỉnh sửa lại kích thước cho form</t>
+  </si>
+  <si>
+    <t>&lt;form&gt;&lt;,form&gt;,ul,li</t>
+  </si>
+  <si>
+    <t>chỉnh sửa lại kích thước cho form,ul li</t>
   </si>
 </sst>
 </file>
@@ -4425,7 +4422,7 @@
   <dimension ref="A1:BI79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10:AM11"/>
+      <selection activeCell="AC12" sqref="AC12:AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -4939,7 +4936,7 @@
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
@@ -4962,7 +4959,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="55"/>
       <c r="T8" s="59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U8" s="60"/>
       <c r="V8" s="60"/>
@@ -5084,7 +5081,7 @@
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -5098,7 +5095,7 @@
       <c r="K10" s="79"/>
       <c r="L10" s="80"/>
       <c r="M10" s="54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
@@ -5107,7 +5104,7 @@
       <c r="R10" s="60"/>
       <c r="S10" s="61"/>
       <c r="T10" s="59" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="U10" s="60"/>
       <c r="V10" s="60"/>
@@ -5229,7 +5226,7 @@
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
@@ -5243,7 +5240,7 @@
       <c r="K12" s="79"/>
       <c r="L12" s="80"/>
       <c r="M12" s="54" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N12" s="60"/>
       <c r="O12" s="60"/>
@@ -5252,7 +5249,7 @@
       <c r="R12" s="60"/>
       <c r="S12" s="61"/>
       <c r="T12" s="59" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="U12" s="60"/>
       <c r="V12" s="60"/>
@@ -5263,7 +5260,7 @@
       <c r="AA12" s="60"/>
       <c r="AB12" s="60"/>
       <c r="AC12" s="53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AD12" s="60"/>
       <c r="AE12" s="60"/>
@@ -5375,7 +5372,7 @@
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="79"/>
       <c r="E14" s="79"/>
@@ -5389,7 +5386,7 @@
       <c r="K14" s="79"/>
       <c r="L14" s="80"/>
       <c r="M14" s="54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
@@ -5398,7 +5395,7 @@
       <c r="R14" s="60"/>
       <c r="S14" s="61"/>
       <c r="T14" s="59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U14" s="60"/>
       <c r="V14" s="60"/>
@@ -5409,7 +5406,7 @@
       <c r="AA14" s="60"/>
       <c r="AB14" s="60"/>
       <c r="AC14" s="53" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AD14" s="60"/>
       <c r="AE14" s="60"/>
@@ -5519,7 +5516,7 @@
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
@@ -5533,7 +5530,7 @@
       <c r="K16" s="79"/>
       <c r="L16" s="80"/>
       <c r="M16" s="54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -5542,7 +5539,7 @@
       <c r="R16" s="60"/>
       <c r="S16" s="61"/>
       <c r="T16" s="59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U16" s="60"/>
       <c r="V16" s="60"/>
@@ -5553,7 +5550,7 @@
       <c r="AA16" s="60"/>
       <c r="AB16" s="60"/>
       <c r="AC16" s="53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD16" s="60"/>
       <c r="AE16" s="60"/>
